--- a/listes competences mémoire.xlsx
+++ b/listes competences mémoire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6093F9E-9C1A-40D5-B13B-BDDADC4338B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687615F7-CFED-42F1-A1A9-E1E41C58B2A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +336,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +391,48 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -488,7 +537,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,12 +549,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,14 +572,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -543,6 +612,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -880,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,37 +1011,37 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="5"/>
@@ -978,26 +1052,26 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5"/>
@@ -1005,8 +1079,8 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5"/>
@@ -1014,8 +1088,8 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5"/>
@@ -1023,17 +1097,17 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="6"/>
@@ -1041,8 +1115,8 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="6"/>
@@ -1050,8 +1124,8 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="5"/>
@@ -1059,8 +1133,8 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="25" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="6"/>
@@ -1068,8 +1142,8 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="6"/>
@@ -1077,11 +1151,11 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="G21" t="s">
@@ -1089,17 +1163,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="6"/>
@@ -1107,8 +1181,8 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="5"/>
@@ -1116,8 +1190,8 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="6"/>
@@ -1125,8 +1199,8 @@
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="6"/>
@@ -1134,17 +1208,17 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="5"/>
@@ -1152,8 +1226,8 @@
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="5"/>
@@ -1161,28 +1235,28 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="6"/>
@@ -1190,8 +1264,8 @@
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="6"/>
@@ -1199,8 +1273,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="6"/>
@@ -1208,16 +1282,16 @@
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="6"/>
@@ -1225,8 +1299,8 @@
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="6"/>
@@ -1234,17 +1308,17 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="5"/>
@@ -1252,8 +1326,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="29" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="5"/>
@@ -1261,28 +1335,28 @@
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="6"/>
@@ -1290,8 +1364,8 @@
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="6"/>
@@ -1299,8 +1373,8 @@
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="6"/>
@@ -1308,8 +1382,8 @@
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="20"/>
+      <c r="B46" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="6"/>
@@ -1317,8 +1391,8 @@
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="6"/>
@@ -1326,8 +1400,8 @@
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="6"/>
@@ -1335,16 +1409,16 @@
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="5" t="s">
         <v>41</v>
       </c>
@@ -1353,7 +1427,7 @@
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="5" t="s">
         <v>43</v>
       </c>
@@ -1362,7 +1436,7 @@
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="5" t="s">
         <v>44</v>
       </c>
@@ -1371,7 +1445,7 @@
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="5" t="s">
         <v>45</v>
       </c>
@@ -1380,7 +1454,7 @@
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="5" t="s">
         <v>46</v>
       </c>
@@ -1398,10 +1472,10 @@
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="6"/>
@@ -1409,8 +1483,8 @@
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="5"/>
@@ -1418,8 +1492,8 @@
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="5"/>
@@ -1427,17 +1501,17 @@
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="18"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="31" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="6"/>
@@ -1445,8 +1519,8 @@
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="22"/>
+      <c r="B61" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="6"/>
@@ -1454,8 +1528,8 @@
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="22"/>
+      <c r="B62" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C62" s="6"/>
@@ -1463,8 +1537,8 @@
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="31" t="s">
         <v>54</v>
       </c>
       <c r="D63" s="5"/>
@@ -1611,6 +1685,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="A65:A71"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="B1:E1"/>
@@ -1627,13 +1708,6 @@
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/listes competences mémoire.xlsx
+++ b/listes competences mémoire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687615F7-CFED-42F1-A1A9-E1E41C58B2A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F847BBE-93DE-4E1A-AC28-CD6BAF33BB2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,15 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -283,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,13 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
@@ -344,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,11 +385,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -434,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -442,172 +438,62 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -954,744 +840,737 @@
   </sheetPr>
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="148.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="148.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="G9" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="G9" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="G21" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="28" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="28" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="28" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="16" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="29" t="s">
+      <c r="A40" s="16"/>
+      <c r="B40" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="30" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="30" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="30" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="19"/>
+      <c r="B50" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="31" t="s">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="24"/>
+      <c r="B66" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="24"/>
+      <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="24"/>
+      <c r="B68" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="24"/>
+      <c r="B69" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="24"/>
+      <c r="B70" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="24"/>
+      <c r="B71" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="5" t="s">
+      <c r="A74" s="24"/>
+      <c r="B74" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="5" t="s">
+      <c r="A75" s="24"/>
+      <c r="B75" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="24"/>
+      <c r="B77" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="A65:A71"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="B1:E1"/>
@@ -1708,6 +1587,13 @@
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/listes competences mémoire.xlsx
+++ b/listes competences mémoire.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F847BBE-93DE-4E1A-AC28-CD6BAF33BB2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCE0CFB-A4EE-4957-98F4-7D8FA82E28F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
-  <si>
-    <t>Bloc 1 – Fonction d’encadrement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Identifier et analyser les besoins de l’entreprise au niveau organisationnel et système d’information</t>
   </si>
@@ -56,9 +51,6 @@
     <t>Mettre en oeuvre une politique de sécurité en utilisant des normes telles ISO27000</t>
   </si>
   <si>
-    <t>1.2 – Management des Ressources</t>
-  </si>
-  <si>
     <t>Superviser et piloter une équipe projet</t>
   </si>
   <si>
@@ -83,21 +75,12 @@
     <t>Rechercher et proposer des solutions innovatrices pour anticiper les évolutions et attentes de son secteur d’activité</t>
   </si>
   <si>
-    <t>1.4 – Stratégie financière</t>
-  </si>
-  <si>
     <t>Lire et interpréter les indicateurs financiers d’un tableau de bord pour piloter son activité</t>
   </si>
   <si>
     <t>Analyser un bilan et un compte de résultats pour mettre en place des indicateurs financiers</t>
   </si>
   <si>
-    <t>Bloc 2 – Méthodes &amp; Projet</t>
-  </si>
-  <si>
-    <t>2.1 – Management de Projet</t>
-  </si>
-  <si>
     <t>Participer à la rédaction du cahier des charges d’un service à produire</t>
   </si>
   <si>
@@ -116,21 +99,12 @@
     <t>Extraire et traiter l'information pertinente vers les publics ciblés</t>
   </si>
   <si>
-    <t>2.2 – Méthode de Gestion de Projet</t>
-  </si>
-  <si>
     <t>Gérer un projet en utilisant les principes de l’agilité de la méthode SCRUM</t>
   </si>
   <si>
     <t>Mettre en place des indicateurs de mesure propres aux méthodes agiles</t>
   </si>
   <si>
-    <t>Bloc 3 – Gestion des Données &amp; Business Intelligence</t>
-  </si>
-  <si>
-    <t>3.1 – Gestion des données</t>
-  </si>
-  <si>
     <t>Concevoir et utiliser la rétro-conception des bases de données</t>
   </si>
   <si>
@@ -149,12 +123,6 @@
     <t>Sécuriser une base de données en utilisant le langage SQL du Système de Gestion de Bases de données</t>
   </si>
   <si>
-    <t>3.2 – Business Intelligence</t>
-  </si>
-  <si>
-    <t>Bloc 4 – Etudes &amp; Développement</t>
-  </si>
-  <si>
     <t>Définir une architecture Business Intelligence</t>
   </si>
   <si>
@@ -257,12 +225,6 @@
     <t>Bloc</t>
   </si>
   <si>
-    <t>1.1 – Management des SI</t>
-  </si>
-  <si>
-    <t>1.3 – Ethique &amp; Evolution du SI</t>
-  </si>
-  <si>
     <t xml:space="preserve">BLOC COMMUN </t>
   </si>
   <si>
@@ -281,50 +243,22 @@
     <t>Nom / Prénom</t>
   </si>
   <si>
-    <t>Cartographie service négoce (ordo ?)</t>
-  </si>
-  <si>
-    <t>Montrer que tous les choix de presta ne valent pas un dev interne</t>
+    <t>Roura Florian</t>
+  </si>
+  <si>
+    <t>L'évolution d'une application B2B de l'AS400 vers Angular</t>
+  </si>
+  <si>
+    <t>Développement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -338,14 +272,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.14999847407452621"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DivulgeW00-Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="DivulgeW00-Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DivulgeW00-Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DivulgeW00-Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DivulgeW00-Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="DivulgeW00-Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DivulgeW00-Condensed"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +408,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -439,23 +424,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -464,39 +445,70 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -838,10 +850,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,505 +864,607 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="str">
+        <f>_xlfn.CONCAT("Bloc 1 – Fonction d’encadrement (", COUNT(C8:C14)+COUNT(C16:C21)+COUNT(C23:C26)+COUNT(C28:C29),"/",ROWS(C8:C14)+ROWS(C16:C21)+ROWS(C23:C26)+ROWS(C28:C29),") - ",ROUND((COUNT(C8:C14)+COUNT(C16:C21)+COUNT(C23:C26)+COUNT(C28:C29))/(ROWS(C8:C14)+ROWS(C16:C21)+ROWS(C23:C26)+ROWS(C28:C29))*100,1),"%")</f>
+        <v>Bloc 1 – Fonction d’encadrement (10/19) - 52.6%</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="str">
+        <f>_xlfn.CONCAT("1.1 – Management des SI (", COUNT(C8:C14),"/",ROWS(C8:C14),")")</f>
+        <v>1.1 – Management des SI (2/7)</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="H9" s="1">
+        <f>ROUND(COUNT(C32:C37)+COUNT(C39:C40)/(ROWS(C32:C37)+ROWS(C39:C40))*100,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="H10" s="1">
+        <f>COUNT(C32:C37,C39:C40)/(ROWS(D32:D37)+ROWS(D39:D40))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="27">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="27">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="str">
+        <f>_xlfn.CONCAT("1.2 – Management des ressources (", COUNT(C16:C21),"/",ROWS(C16:C21),")")</f>
+        <v>1.2 – Management des ressources (5/6)</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13" t="s">
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="27">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13" t="s">
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="13" t="s">
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="str">
+        <f>_xlfn.CONCAT("1.3 – Ethique &amp; Evolution du SI (", COUNT(C23:C26),"/",ROWS(C23:C26),")")</f>
+        <v>1.3 – Ethique &amp; Evolution du SI (3/4)</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="G21" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="14" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="27">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="14" t="s">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="str">
+        <f>_xlfn.CONCAT("1.4 – Stratégie financière (", COUNT(C28:C29),"/",ROWS(C28:C29),")")</f>
+        <v>1.4 – Stratégie financière (0/2)</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="14" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="27">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="27">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="str">
+        <f>_xlfn.CONCAT("Bloc 2 – Méthodes &amp; Projet (", COUNT(C32:C37)+COUNT(C39:C40),"/",ROWS(C32:C37)+ROWS(C39:C40),") - ",ROUND(COUNT(C32:C37,C39:C40)/(ROWS(D32:D37)+ROWS(D39:D40))*100,1),"%")</f>
+        <v>Bloc 2 – Méthodes &amp; Projet (4/8) - 50%</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f>_xlfn.CONCAT("2.1 – Management de Projet (", COUNT(C32:C37),"/",ROWS(C32:C37),")")</f>
+        <v>2.1 – Management de Projet (4/6)</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="15" t="s">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="15" t="s">
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="27">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="27">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17" t="s">
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="7" t="str">
+        <f>_xlfn.CONCAT("2.2 – Méthode de Gestion de Projet (", COUNT(C39:C40),"/",ROWS(C39:C40),")")</f>
+        <v>2.2 – Méthode de Gestion de Projet (0/2)</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="27">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="27">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="5" t="str">
+        <f>_xlfn.CONCAT("Bloc 3 – Gestion des Données &amp; Business Intelligence (", COUNT(C43:C48)+COUNT(C50:C54),"/",ROWS(C43:C48)+ROWS(C50:C54),") - ",ROUND(COUNT(C43:C48,C50:C54)/(ROWS(C43:C48)+ROWS(C50:C54))*100,1),"%")</f>
+        <v>Bloc 3 – Gestion des Données &amp; Business Intelligence (6/11) - 54.5%</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="B42" s="7" t="str">
+        <f>_xlfn.CONCAT("3.1 – Gestion des données (", COUNT(C43:C48),"/",ROWS(C43:C48),")")</f>
+        <v>3.1 – Gestion des données (6/6)</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
-      <c r="B49" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="B49" s="7" t="str">
+        <f>_xlfn.CONCAT("3.2 – Business Intelligence (", COUNT(C50:C54),"/",ROWS(C50:C54),")")</f>
+        <v>3.2 – Business Intelligence (0/5)</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
-      <c r="B50" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="B50" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="27">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
-      <c r="B51" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="B51" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="27">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
-      <c r="B52" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="B52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="27">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
-      <c r="B53" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="B53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="27">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
-      <c r="B54" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="B54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="27">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>40</v>
+      <c r="A55" s="21" t="str">
+        <f>_xlfn.CONCAT("Bloc 4 – Etudes &amp; Développement (", COUNT(C56:C63),"/",ROWS(C56:C63),") - ",ROUND(COUNT(C56:C63)/(ROWS(C56:C63))*100,1),"%")</f>
+        <v>Bloc 4 – Etudes &amp; Développement (5/8) - 62.5%</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -1359,80 +1473,97 @@
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="27">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="27">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="27">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -1441,72 +1572,86 @@
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
-      <c r="B66" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
+      <c r="B66" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
-      <c r="B67" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="B67" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
-      <c r="B68" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
-      <c r="B69" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="B69" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
-      <c r="B70" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
-      <c r="B71" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -1515,59 +1660,71 @@
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
-      <c r="B74" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="B74" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
-      <c r="B75" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="B75" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10">
+        <v>1</v>
+      </c>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
-      <c r="B76" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="B76" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10">
+        <v>1</v>
+      </c>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
-      <c r="B77" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="B77" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
-      <c r="B78" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="B78" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+      <c r="E78" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1595,34 +1752,20 @@
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B27:E27"/>
   </mergeCells>
+  <conditionalFormatting sqref="C8:C14 C16:C21 C23:C26 C28:C29 C32:C37 C39:C40 C43:C48 C50:C54 C56:C63 C65:C71 C73:C78">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D14 D16:D21 D23:D26 D28:D29 D32:D37 D39:D40 D43:D48 D50:D54 D56:D63 D65:D71 D73:D78">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="40" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/listes competences mémoire.xlsx
+++ b/listes competences mémoire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCE0CFB-A4EE-4957-98F4-7D8FA82E28F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D3FCF-2724-4BE0-8BA1-9FC6801D2799}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>Identifier et analyser les besoins de l’entreprise au niveau organisationnel et système d’information</t>
   </si>
@@ -249,24 +249,65 @@
     <t>L'évolution d'une application B2B de l'AS400 vers Angular</t>
   </si>
   <si>
-    <t>Développement</t>
+    <t>Etudes &amp; Développement</t>
+  </si>
+  <si>
+    <t>7-8, 12-15, 17-18, 26, 31, 40</t>
+  </si>
+  <si>
+    <t>7-8, 40, 48</t>
+  </si>
+  <si>
+    <t>17-19, 26, 34-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>34-37</t>
+  </si>
+  <si>
+    <t>34-35</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>17-25, 28, 30</t>
+  </si>
+  <si>
+    <t>26, 30-35</t>
+  </si>
+  <si>
+    <t>40, 48</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>43, 45</t>
+  </si>
+  <si>
+    <t>46-47</t>
+  </si>
+  <si>
+    <t>32-33</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,12 +341,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DivulgeW00-Condensed"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DivulgeW00-Condensed"/>
       <family val="2"/>
@@ -324,7 +359,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,11 +394,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -424,66 +454,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -850,10 +877,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:E55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,50 +888,51 @@
     <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="148.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
@@ -921,813 +949,868 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="str">
         <f>_xlfn.CONCAT("Bloc 1 – Fonction d’encadrement (", COUNT(C8:C14)+COUNT(C16:C21)+COUNT(C23:C26)+COUNT(C28:C29),"/",ROWS(C8:C14)+ROWS(C16:C21)+ROWS(C23:C26)+ROWS(C28:C29),") - ",ROUND((COUNT(C8:C14)+COUNT(C16:C21)+COUNT(C23:C26)+COUNT(C28:C29))/(ROWS(C8:C14)+ROWS(C16:C21)+ROWS(C23:C26)+ROWS(C28:C29))*100,1),"%")</f>
         <v>Bloc 1 – Fonction d’encadrement (10/19) - 52.6%</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="str">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="24" t="str">
         <f>_xlfn.CONCAT("1.1 – Management des SI (", COUNT(C8:C14),"/",ROWS(C8:C14),")")</f>
-        <v>1.1 – Management des SI (2/7)</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8" t="s">
+        <v>1.1 – Management des SI (4/7)</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="H9" s="1">
-        <f>ROUND(COUNT(C32:C37)+COUNT(C39:C40)/(ROWS(C32:C37)+ROWS(C39:C40))*100,1)</f>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" s="26" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="H10" s="1">
-        <f>COUNT(C32:C37,C39:C40)/(ROWS(D32:D37)+ROWS(D39:D40))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="27">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8" t="s">
+      <c r="C12"/>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="27">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="str">
+      <c r="C14"/>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="24" t="str">
         <f>_xlfn.CONCAT("1.2 – Management des ressources (", COUNT(C16:C21),"/",ROWS(C16:C21),")")</f>
-        <v>1.2 – Management des ressources (5/6)</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12" t="s">
+        <v>1.2 – Management des ressources (4/6)</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="26" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="26" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="27">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10"/>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="C19"/>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="26" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" s="26" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="str">
+      <c r="A22" s="20"/>
+      <c r="B22" s="24" t="str">
         <f>_xlfn.CONCAT("1.3 – Ethique &amp; Evolution du SI (", COUNT(C23:C26),"/",ROWS(C23:C26),")")</f>
-        <v>1.3 – Ethique &amp; Evolution du SI (3/4)</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+        <v>1.3 – Ethique &amp; Evolution du SI (2/4)</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="C23"/>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="27">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10"/>
+      <c r="C24"/>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" s="26" t="str">
+        <f>"48"</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" s="26" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="str">
+      <c r="A27" s="20"/>
+      <c r="B27" s="24" t="str">
         <f>_xlfn.CONCAT("1.4 – Stratégie financière (", COUNT(C28:C29),"/",ROWS(C28:C29),")")</f>
         <v>1.4 – Stratégie financière (0/2)</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="27">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10"/>
+      <c r="C28"/>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="27">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10"/>
+      <c r="C29"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="str">
+      <c r="A30" s="25" t="str">
         <f>_xlfn.CONCAT("Bloc 2 – Méthodes &amp; Projet (", COUNT(C32:C37)+COUNT(C39:C40),"/",ROWS(C32:C37)+ROWS(C39:C40),") - ",ROUND(COUNT(C32:C37,C39:C40)/(ROWS(D32:D37)+ROWS(D39:D40))*100,1),"%")</f>
         <v>Bloc 2 – Méthodes &amp; Projet (4/8) - 50%</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="7" t="str">
+      <c r="B31" s="24" t="str">
         <f>_xlfn.CONCAT("2.1 – Management de Projet (", COUNT(C32:C37),"/",ROWS(C32:C37),")")</f>
         <v>2.1 – Management de Projet (4/6)</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="9">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" s="26" t="str">
+        <f>"11, 15"</f>
+        <v>11, 15</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" s="26" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="27">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10"/>
+      <c r="C34"/>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="21"/>
+      <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="27">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10"/>
+      <c r="C35"/>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="9">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" s="26" t="str">
+        <f>"11, 15"</f>
+        <v>11, 15</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="9">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" s="26" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="7" t="str">
+      <c r="A38" s="21"/>
+      <c r="B38" s="24" t="str">
         <f>_xlfn.CONCAT("2.2 – Méthode de Gestion de Projet (", COUNT(C39:C40),"/",ROWS(C39:C40),")")</f>
         <v>2.2 – Méthode de Gestion de Projet (0/2)</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="21"/>
+      <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="27">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10"/>
+      <c r="C39"/>
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="27">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10"/>
+      <c r="C40"/>
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="str">
+      <c r="A41" s="25" t="str">
         <f>_xlfn.CONCAT("Bloc 3 – Gestion des Données &amp; Business Intelligence (", COUNT(C43:C48)+COUNT(C50:C54),"/",ROWS(C43:C48)+ROWS(C50:C54),") - ",ROUND(COUNT(C43:C48,C50:C54)/(ROWS(C43:C48)+ROWS(C50:C54))*100,1),"%")</f>
         <v>Bloc 3 – Gestion des Données &amp; Business Intelligence (6/11) - 54.5%</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="B42" s="24" t="str">
         <f>_xlfn.CONCAT("3.1 – Gestion des données (", COUNT(C43:C48),"/",ROWS(C43:C48),")")</f>
         <v>3.1 – Gestion des données (6/6)</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="9">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" s="26">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="9">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" s="26" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="9">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="9">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" s="26" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="9">
-        <v>1</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" s="26" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="9">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" s="26" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="7" t="str">
+      <c r="A49" s="22"/>
+      <c r="B49" s="24" t="str">
         <f>_xlfn.CONCAT("3.2 – Business Intelligence (", COUNT(C50:C54),"/",ROWS(C50:C54),")")</f>
         <v>3.2 – Business Intelligence (0/5)</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="27">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10"/>
+      <c r="C50"/>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="27">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10"/>
+      <c r="C51"/>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="27">
-        <v>1</v>
-      </c>
-      <c r="E52" s="10"/>
+      <c r="C52"/>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="27">
-        <v>1</v>
-      </c>
-      <c r="E53" s="10"/>
+      <c r="C53"/>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="27">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10"/>
+      <c r="C54"/>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="str">
+      <c r="A55" s="19" t="str">
         <f>_xlfn.CONCAT("Bloc 4 – Etudes &amp; Développement (", COUNT(C56:C63),"/",ROWS(C56:C63),") - ",ROUND(COUNT(C56:C63)/(ROWS(C56:C63))*100,1),"%")</f>
-        <v>Bloc 4 – Etudes &amp; Développement (5/8) - 62.5%</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+        <v>Bloc 4 – Etudes &amp; Développement (4/8) - 50%</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="9">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" s="26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="27">
-        <v>1</v>
-      </c>
-      <c r="E57" s="10"/>
+      <c r="C57"/>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="27">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10"/>
+      <c r="C58"/>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="23"/>
+      <c r="B59" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="9">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23" t="s">
+      <c r="A60" s="23"/>
+      <c r="B60" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="9">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" s="26" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="9">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="C61"/>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="9">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" s="26" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="27">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10"/>
+      <c r="C63"/>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10">
-        <v>1</v>
-      </c>
-      <c r="E65" s="10"/>
+      <c r="C65"/>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="10" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10">
-        <v>1</v>
-      </c>
-      <c r="E66" s="10"/>
+      <c r="C66"/>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="10" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10">
-        <v>1</v>
-      </c>
-      <c r="E67" s="10"/>
+      <c r="C67"/>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="10" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10">
-        <v>1</v>
-      </c>
-      <c r="E68" s="10"/>
+      <c r="C68"/>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="10" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10">
-        <v>1</v>
-      </c>
-      <c r="E69" s="10"/>
+      <c r="C69"/>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10">
-        <v>1</v>
-      </c>
-      <c r="E70" s="10"/>
+      <c r="C70"/>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10">
-        <v>1</v>
-      </c>
-      <c r="E71" s="10"/>
+      <c r="C71"/>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="26"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
     </row>
     <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10">
-        <v>1</v>
-      </c>
-      <c r="E73" s="10"/>
+      <c r="C73"/>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10">
-        <v>1</v>
-      </c>
-      <c r="E74" s="10"/>
+      <c r="C74"/>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="10" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10"/>
+      <c r="C75"/>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="10" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10">
-        <v>1</v>
-      </c>
-      <c r="E76" s="10"/>
+      <c r="C76"/>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="26"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10">
-        <v>1</v>
-      </c>
-      <c r="E77" s="10"/>
+      <c r="C77"/>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="26"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10">
-        <v>1</v>
-      </c>
-      <c r="E78" s="10"/>
+      <c r="C78"/>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B27:E27"/>
     <mergeCell ref="A65:A71"/>
     <mergeCell ref="A73:A78"/>
     <mergeCell ref="B1:E1"/>
@@ -1744,13 +1827,6 @@
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:C14 C16:C21 C23:C26 C28:C29 C32:C37 C39:C40 C43:C48 C50:C54 C56:C63 C65:C71 C73:C78">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
@@ -1767,5 +1843,8 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="40" max="16383" man="1"/>
   </rowBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="E32 E36" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/listes competences mémoire.xlsx
+++ b/listes competences mémoire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Memoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D3FCF-2724-4BE0-8BA1-9FC6801D2799}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6BEF61-D5CA-4745-A541-63A61E1A1483}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,16 +879,17 @@
   </sheetPr>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="148.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="117.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
